--- a/Time-Tracker.xlsx
+++ b/Time-Tracker.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carl\OneDrive\Bureaublad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carl\Documents\GitHub\Project-Web-Technologies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DF61C8D-C4DE-4521-A102-AD286F39B468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C64E410F-4658-4A3B-82C9-1BC9DFD93699}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>Maxim</t>
   </si>
@@ -72,12 +71,43 @@
   </si>
   <si>
     <t>5.</t>
+  </si>
+  <si>
+    <t>2 hours</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>1,5 hours</t>
+  </si>
+  <si>
+    <t>Chosen front end &amp; back end framework + database. (VueJS &amp; NodeJS  + MongoDB)
+Setup the project with necessary files.</t>
+  </si>
+  <si>
+    <t>Created Login and SignUp components in VueJS.</t>
+  </si>
+  <si>
+    <t>Created presentation for the intermediary presentation.</t>
+  </si>
+  <si>
+    <t>Setup the database and connected it to the
+application with Mongoose.
+(+ created necessary schemas)</t>
+  </si>
+  <si>
+    <t>Made users able to sign up and log in
+ (=&gt; store users in database)</t>
+  </si>
+  <si>
+    <t>Provided front side form validation + server side form validation.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -292,43 +322,66 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -645,11 +698,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A936AE-CDD0-4817-9855-FB27BA720720}">
-  <dimension ref="I5:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="I5:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,17 +713,17 @@
   <sheetData>
     <row r="5" spans="9:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="9:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="8" t="s">
+      <c r="J6" s="14"/>
+      <c r="K6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -678,149 +731,215 @@
       <c r="I7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="15">
+        <v>44845</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="9:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I8" s="12"/>
-      <c r="J8" s="13" t="s">
+      <c r="I8" s="11"/>
+      <c r="J8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="9:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I9" s="14"/>
-      <c r="J9" s="15" t="s">
+    <row r="9" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="12"/>
+      <c r="J9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="K9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" spans="9:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="I10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="K10" s="15">
+        <v>44854</v>
+      </c>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
     </row>
     <row r="11" spans="9:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I11" s="12"/>
-      <c r="J11" s="13" t="s">
+      <c r="I11" s="11"/>
+      <c r="J11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="9:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="14"/>
-      <c r="J12" s="16" t="s">
+      <c r="K11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+    </row>
+    <row r="12" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="12"/>
+      <c r="J12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="K12" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
     </row>
     <row r="13" spans="9:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="I13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="K13" s="15">
+        <v>44859</v>
+      </c>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
     </row>
     <row r="14" spans="9:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I14" s="12"/>
-      <c r="J14" s="13" t="s">
+      <c r="I14" s="11"/>
+      <c r="J14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="9:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I15" s="14"/>
-      <c r="J15" s="16" t="s">
+      <c r="K14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+    </row>
+    <row r="15" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="12"/>
+      <c r="J15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="K15" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
     </row>
     <row r="16" spans="9:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="I16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="K16" s="15">
+        <v>44870</v>
+      </c>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
     </row>
     <row r="17" spans="9:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I17" s="12"/>
-      <c r="J17" s="13" t="s">
+      <c r="I17" s="11"/>
+      <c r="J17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="9:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I18" s="14"/>
-      <c r="J18" s="16" t="s">
+      <c r="K17" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+    </row>
+    <row r="18" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="12"/>
+      <c r="J18" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="K18" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
     </row>
     <row r="19" spans="9:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="I19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+      <c r="K19" s="15">
+        <v>44881</v>
+      </c>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
     </row>
     <row r="20" spans="9:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I20" s="12"/>
-      <c r="J20" s="13" t="s">
+      <c r="I20" s="11"/>
+      <c r="J20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="9:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="14"/>
-      <c r="J21" s="16" t="s">
+      <c r="K20" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+    </row>
+    <row r="21" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="12"/>
+      <c r="J21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="K21" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+    </row>
+    <row r="22" spans="9:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="15">
+        <v>44885</v>
+      </c>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+    </row>
+    <row r="23" spans="9:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I23" s="11"/>
+      <c r="J23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+    </row>
+    <row r="24" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="12"/>
+      <c r="J24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="I22:I24"/>
     <mergeCell ref="I10:I12"/>
     <mergeCell ref="I13:I15"/>
     <mergeCell ref="I16:I18"/>

--- a/Time-Tracker.xlsx
+++ b/Time-Tracker.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carl\Documents\GitHub\Project-Web-Technologies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\Documents\GitHub\Project-Web-Technologies\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72207222-A9AB-4021-BC5E-193333B22EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -19,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
   <si>
     <t>Maxim</t>
   </si>
@@ -102,12 +92,42 @@
   </si>
   <si>
     <t>Provided front side form validation + server side form validation.</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>Make it available for users to update their profile data except for the password.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added profile page for users to see their user data.
+(display data from the database in form fields) </t>
+  </si>
+  <si>
+    <t>Added search bar on Organiser side to search for companies 
++ backend. (asynchronous requests to server)</t>
+  </si>
+  <si>
+    <t>Created Home Page for new users.
+(= entry page for website) + footer</t>
+  </si>
+  <si>
+    <t>10.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -322,7 +342,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1"/>
@@ -341,14 +361,32 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -356,33 +394,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -698,25 +719,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I5:M24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="I5:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="83" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
-    <col min="11" max="13" width="50.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.06640625" style="24"/>
+    <col min="10" max="10" width="18.73046875" customWidth="1"/>
+    <col min="11" max="13" width="50.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="9:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="9:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I6" s="13" t="s">
+    <row r="5" spans="9:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="6" spans="9:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="14"/>
+      <c r="J6" s="20"/>
       <c r="K6" s="4" t="s">
         <v>0</v>
       </c>
@@ -727,227 +749,371 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="9:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I7" s="10" t="s">
+    <row r="7" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I7" s="21" t="s">
         <v>4</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="10">
         <v>44845</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="9:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I8" s="11"/>
+    <row r="8" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I8" s="22"/>
       <c r="J8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="11" t="s">
         <v>13</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I9" s="12"/>
+    <row r="9" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I9" s="23"/>
       <c r="J9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="9:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I10" s="10" t="s">
+    <row r="10" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I10" s="21" t="s">
         <v>8</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="10">
         <v>44854</v>
       </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-    </row>
-    <row r="11" spans="9:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I11" s="11"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I11" s="22"/>
       <c r="J11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-    </row>
-    <row r="12" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="12"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+    </row>
+    <row r="12" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I12" s="23"/>
       <c r="J12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="K12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-    </row>
-    <row r="13" spans="9:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I13" s="10" t="s">
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+    </row>
+    <row r="13" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I13" s="21" t="s">
         <v>9</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="10">
         <v>44859</v>
       </c>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-    </row>
-    <row r="14" spans="9:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I14" s="11"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+    </row>
+    <row r="14" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I14" s="22"/>
       <c r="J14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-    </row>
-    <row r="15" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I15" s="12"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+    </row>
+    <row r="15" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I15" s="23"/>
       <c r="J15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-    </row>
-    <row r="16" spans="9:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I16" s="10" t="s">
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+    </row>
+    <row r="16" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I16" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="10">
         <v>44870</v>
       </c>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-    </row>
-    <row r="17" spans="9:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I17" s="11"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I17" s="22"/>
       <c r="J17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="K17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-    </row>
-    <row r="18" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I18" s="12"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+    </row>
+    <row r="18" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I18" s="23"/>
       <c r="J18" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="23" t="s">
+      <c r="K18" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-    </row>
-    <row r="19" spans="9:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I19" s="10" t="s">
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+    </row>
+    <row r="19" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I19" s="21" t="s">
         <v>11</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="10">
         <v>44881</v>
       </c>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-    </row>
-    <row r="20" spans="9:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I20" s="11"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I20" s="22"/>
       <c r="J20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-    </row>
-    <row r="21" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="12"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I21" s="23"/>
       <c r="J21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="K21" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-    </row>
-    <row r="22" spans="9:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I22" s="10" t="s">
-        <v>11</v>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+    </row>
+    <row r="22" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I22" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22" s="10">
         <v>44885</v>
       </c>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-    </row>
-    <row r="23" spans="9:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I23" s="11"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I23" s="22"/>
       <c r="J23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="19" t="s">
+      <c r="K23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-    </row>
-    <row r="24" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="12"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+    </row>
+    <row r="24" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I24" s="23"/>
       <c r="J24" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K24" s="23" t="s">
+      <c r="K24" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+    </row>
+    <row r="25" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I25" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="10">
+        <v>44896</v>
+      </c>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+    </row>
+    <row r="26" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I26" s="22"/>
+      <c r="J26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+    </row>
+    <row r="27" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I27" s="23"/>
+      <c r="J27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+    </row>
+    <row r="28" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I28" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="10">
+        <v>44900</v>
+      </c>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+    </row>
+    <row r="29" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I29" s="22"/>
+      <c r="J29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+    </row>
+    <row r="30" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I30" s="23"/>
+      <c r="J30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+    </row>
+    <row r="31" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I31" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="10">
+        <v>44905</v>
+      </c>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+    </row>
+    <row r="32" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I32" s="22"/>
+      <c r="J32" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+    </row>
+    <row r="33" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I33" s="23"/>
+      <c r="J33" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+    </row>
+    <row r="34" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I34" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="10">
+        <v>44906</v>
+      </c>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+    </row>
+    <row r="35" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I35" s="22"/>
+      <c r="J35" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+    </row>
+    <row r="36" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I36" s="23"/>
+      <c r="J36" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="I31:I33"/>
     <mergeCell ref="I22:I24"/>
     <mergeCell ref="I10:I12"/>
     <mergeCell ref="I13:I15"/>
     <mergeCell ref="I16:I18"/>
     <mergeCell ref="I19:I21"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Time-Tracker.xlsx
+++ b/Time-Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\Documents\GitHub\Project-Web-Technologies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72207222-A9AB-4021-BC5E-193333B22EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95C6138-C644-467D-A570-3B379FD95432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
   <si>
     <t>Maxim</t>
   </si>
@@ -122,13 +122,22 @@
   </si>
   <si>
     <t>10.</t>
+  </si>
+  <si>
+    <t>0,5 hour</t>
+  </si>
+  <si>
+    <t>Make it available for users to log out from their accounts.</t>
+  </si>
+  <si>
+    <t>11.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +168,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -388,22 +403,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -720,25 +735,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="I5:M36"/>
+  <dimension ref="I5:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="83" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" topLeftCell="F28" zoomScale="97" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="9" max="9" width="9.06640625" style="24"/>
+    <col min="9" max="9" width="9.06640625" style="19"/>
     <col min="10" max="10" width="18.73046875" customWidth="1"/>
     <col min="11" max="13" width="50.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="9:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="6" spans="9:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="20"/>
+      <c r="J6" s="24"/>
       <c r="K6" s="4" t="s">
         <v>0</v>
       </c>
@@ -750,7 +765,7 @@
       </c>
     </row>
     <row r="7" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="20" t="s">
         <v>4</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -763,7 +778,7 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I8" s="22"/>
+      <c r="I8" s="21"/>
       <c r="J8" s="7" t="s">
         <v>5</v>
       </c>
@@ -774,7 +789,7 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I9" s="23"/>
+      <c r="I9" s="22"/>
       <c r="J9" s="8" t="s">
         <v>6</v>
       </c>
@@ -785,7 +800,7 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="20" t="s">
         <v>8</v>
       </c>
       <c r="J10" s="6" t="s">
@@ -798,7 +813,7 @@
       <c r="M10" s="13"/>
     </row>
     <row r="11" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I11" s="22"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="7" t="s">
         <v>5</v>
       </c>
@@ -809,7 +824,7 @@
       <c r="M11" s="15"/>
     </row>
     <row r="12" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I12" s="23"/>
+      <c r="I12" s="22"/>
       <c r="J12" s="9" t="s">
         <v>6</v>
       </c>
@@ -820,7 +835,7 @@
       <c r="M12" s="16"/>
     </row>
     <row r="13" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="20" t="s">
         <v>9</v>
       </c>
       <c r="J13" s="6" t="s">
@@ -833,7 +848,7 @@
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I14" s="22"/>
+      <c r="I14" s="21"/>
       <c r="J14" s="7" t="s">
         <v>5</v>
       </c>
@@ -844,7 +859,7 @@
       <c r="M14" s="15"/>
     </row>
     <row r="15" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I15" s="23"/>
+      <c r="I15" s="22"/>
       <c r="J15" s="9" t="s">
         <v>6</v>
       </c>
@@ -855,7 +870,7 @@
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="20" t="s">
         <v>10</v>
       </c>
       <c r="J16" s="6" t="s">
@@ -868,7 +883,7 @@
       <c r="M16" s="10"/>
     </row>
     <row r="17" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I17" s="22"/>
+      <c r="I17" s="21"/>
       <c r="J17" s="7" t="s">
         <v>5</v>
       </c>
@@ -879,7 +894,7 @@
       <c r="M17" s="15"/>
     </row>
     <row r="18" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I18" s="23"/>
+      <c r="I18" s="22"/>
       <c r="J18" s="9" t="s">
         <v>6</v>
       </c>
@@ -890,7 +905,7 @@
       <c r="M18" s="16"/>
     </row>
     <row r="19" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="20" t="s">
         <v>11</v>
       </c>
       <c r="J19" s="6" t="s">
@@ -903,7 +918,7 @@
       <c r="M19" s="10"/>
     </row>
     <row r="20" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I20" s="22"/>
+      <c r="I20" s="21"/>
       <c r="J20" s="7" t="s">
         <v>5</v>
       </c>
@@ -914,7 +929,7 @@
       <c r="M20" s="15"/>
     </row>
     <row r="21" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I21" s="23"/>
+      <c r="I21" s="22"/>
       <c r="J21" s="9" t="s">
         <v>6</v>
       </c>
@@ -925,7 +940,7 @@
       <c r="M21" s="16"/>
     </row>
     <row r="22" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="20" t="s">
         <v>21</v>
       </c>
       <c r="J22" s="6" t="s">
@@ -938,7 +953,7 @@
       <c r="M22" s="10"/>
     </row>
     <row r="23" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I23" s="22"/>
+      <c r="I23" s="21"/>
       <c r="J23" s="7" t="s">
         <v>5</v>
       </c>
@@ -949,7 +964,7 @@
       <c r="M23" s="15"/>
     </row>
     <row r="24" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I24" s="23"/>
+      <c r="I24" s="22"/>
       <c r="J24" s="9" t="s">
         <v>6</v>
       </c>
@@ -960,7 +975,7 @@
       <c r="M24" s="16"/>
     </row>
     <row r="25" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I25" s="21" t="s">
+      <c r="I25" s="20" t="s">
         <v>22</v>
       </c>
       <c r="J25" s="6" t="s">
@@ -973,7 +988,7 @@
       <c r="M25" s="10"/>
     </row>
     <row r="26" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I26" s="22"/>
+      <c r="I26" s="21"/>
       <c r="J26" s="7" t="s">
         <v>5</v>
       </c>
@@ -984,7 +999,7 @@
       <c r="M26" s="15"/>
     </row>
     <row r="27" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I27" s="23"/>
+      <c r="I27" s="22"/>
       <c r="J27" s="9" t="s">
         <v>6</v>
       </c>
@@ -995,7 +1010,7 @@
       <c r="M27" s="16"/>
     </row>
     <row r="28" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I28" s="21" t="s">
+      <c r="I28" s="20" t="s">
         <v>23</v>
       </c>
       <c r="J28" s="6" t="s">
@@ -1008,7 +1023,7 @@
       <c r="M28" s="10"/>
     </row>
     <row r="29" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I29" s="22"/>
+      <c r="I29" s="21"/>
       <c r="J29" s="7" t="s">
         <v>5</v>
       </c>
@@ -1019,7 +1034,7 @@
       <c r="M29" s="15"/>
     </row>
     <row r="30" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I30" s="23"/>
+      <c r="I30" s="22"/>
       <c r="J30" s="9" t="s">
         <v>6</v>
       </c>
@@ -1030,7 +1045,7 @@
       <c r="M30" s="16"/>
     </row>
     <row r="31" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I31" s="21" t="s">
+      <c r="I31" s="20" t="s">
         <v>24</v>
       </c>
       <c r="J31" s="6" t="s">
@@ -1043,7 +1058,7 @@
       <c r="M31" s="10"/>
     </row>
     <row r="32" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I32" s="22"/>
+      <c r="I32" s="21"/>
       <c r="J32" s="7" t="s">
         <v>5</v>
       </c>
@@ -1054,7 +1069,7 @@
       <c r="M32" s="15"/>
     </row>
     <row r="33" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I33" s="23"/>
+      <c r="I33" s="22"/>
       <c r="J33" s="9" t="s">
         <v>6</v>
       </c>
@@ -1065,7 +1080,7 @@
       <c r="M33" s="16"/>
     </row>
     <row r="34" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I34" s="21" t="s">
+      <c r="I34" s="20" t="s">
         <v>29</v>
       </c>
       <c r="J34" s="6" t="s">
@@ -1078,7 +1093,7 @@
       <c r="M34" s="10"/>
     </row>
     <row r="35" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I35" s="22"/>
+      <c r="I35" s="21"/>
       <c r="J35" s="7" t="s">
         <v>5</v>
       </c>
@@ -1089,7 +1104,7 @@
       <c r="M35" s="15"/>
     </row>
     <row r="36" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I36" s="23"/>
+      <c r="I36" s="22"/>
       <c r="J36" s="9" t="s">
         <v>6</v>
       </c>
@@ -1099,8 +1114,44 @@
       <c r="L36" s="16"/>
       <c r="M36" s="16"/>
     </row>
+    <row r="37" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I37" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" s="10">
+        <v>44907</v>
+      </c>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+    </row>
+    <row r="38" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I38" s="21"/>
+      <c r="J38" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K38" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+    </row>
+    <row r="39" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I39" s="22"/>
+      <c r="J39" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K39" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="I37:I39"/>
     <mergeCell ref="I34:I36"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:I9"/>
@@ -1113,6 +1164,7 @@
     <mergeCell ref="I16:I18"/>
     <mergeCell ref="I19:I21"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Time-Tracker.xlsx
+++ b/Time-Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\Documents\GitHub\Project-Web-Technologies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95C6138-C644-467D-A570-3B379FD95432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46562E9-5ACD-4274-8F98-68FCE7531F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,20 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
   <si>
     <t>Maxim</t>
   </si>
   <si>
-    <t>Nico</t>
-  </si>
-  <si>
     <t>Kwinten</t>
   </si>
   <si>
-    <t>Prestatie</t>
-  </si>
-  <si>
     <t>1.</t>
   </si>
   <si>
@@ -46,9 +40,6 @@
   </si>
   <si>
     <t>beschrijving</t>
-  </si>
-  <si>
-    <t>datum</t>
   </si>
   <si>
     <t>2.</t>
@@ -131,6 +122,22 @@
   </si>
   <si>
     <t>11.</t>
+  </si>
+  <si>
+    <t>Adding Leaflet map component + indicating current location
+on the map + indicating nearby companies on the map.</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t># hours</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
 </sst>
 </file>
@@ -735,422 +742,419 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="I5:M39"/>
+  <dimension ref="I5:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F28" zoomScale="97" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37:I39"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="9" max="9" width="9.06640625" style="19"/>
     <col min="10" max="10" width="18.73046875" customWidth="1"/>
-    <col min="11" max="13" width="50.73046875" customWidth="1"/>
+    <col min="11" max="12" width="50.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="9:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="6" spans="9:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="9:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="6" spans="9:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I6" s="23" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="5" t="s">
+    </row>
+    <row r="7" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I7" s="20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I7" s="20" t="s">
-        <v>4</v>
-      </c>
       <c r="J7" s="6" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="K7" s="10">
         <v>44845</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="8" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="I8" s="21"/>
       <c r="J8" s="7" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="9" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I9" s="22"/>
       <c r="J9" s="8" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="10" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="I10" s="20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="K10" s="10">
         <v>44854</v>
       </c>
       <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-    </row>
-    <row r="11" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="I11" s="21"/>
       <c r="J11" s="7" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-    </row>
-    <row r="12" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="12" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I12" s="22"/>
       <c r="J12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I13" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-    </row>
-    <row r="13" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I13" s="20" t="s">
-        <v>9</v>
-      </c>
       <c r="J13" s="6" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="K13" s="10">
         <v>44859</v>
       </c>
       <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-    </row>
-    <row r="14" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="14" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="I14" s="21"/>
       <c r="J14" s="7" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-    </row>
-    <row r="15" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="15" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I15" s="22"/>
       <c r="J15" s="9" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-    </row>
-    <row r="16" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="16" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="I16" s="20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="K16" s="10">
         <v>44870</v>
       </c>
       <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-    </row>
-    <row r="17" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="17" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="I17" s="21"/>
       <c r="J17" s="7" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-    </row>
-    <row r="18" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="18" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I18" s="22"/>
       <c r="J18" s="9" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-    </row>
-    <row r="19" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="19" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="I19" s="20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="K19" s="10">
         <v>44881</v>
       </c>
       <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-    </row>
-    <row r="20" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="20" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="I20" s="21"/>
       <c r="J20" s="7" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-    </row>
-    <row r="21" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="21" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I21" s="22"/>
       <c r="J21" s="9" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-    </row>
-    <row r="22" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="22" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="I22" s="20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="K22" s="10">
         <v>44885</v>
       </c>
       <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-    </row>
-    <row r="23" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="23" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="I23" s="21"/>
       <c r="J23" s="7" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-    </row>
-    <row r="24" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="24" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I24" s="22"/>
       <c r="J24" s="9" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-    </row>
-    <row r="25" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="25" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="I25" s="20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="K25" s="10">
         <v>44896</v>
       </c>
       <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-    </row>
-    <row r="26" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="26" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="I26" s="21"/>
       <c r="J26" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-    </row>
-    <row r="27" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="27" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I27" s="22"/>
       <c r="J27" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-    </row>
-    <row r="28" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="28" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="I28" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="K28" s="10">
         <v>44900</v>
       </c>
       <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-    </row>
-    <row r="29" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="29" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="I29" s="21"/>
       <c r="J29" s="7" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-    </row>
-    <row r="30" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="30" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I30" s="22"/>
       <c r="J30" s="9" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-    </row>
-    <row r="31" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="31" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="I31" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="K31" s="10">
         <v>44905</v>
       </c>
       <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-    </row>
-    <row r="32" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="32" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="I32" s="21"/>
       <c r="J32" s="7" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-    </row>
-    <row r="33" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="33" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I33" s="22"/>
       <c r="J33" s="9" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="K33" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" s="16"/>
+    </row>
+    <row r="34" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I34" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-    </row>
-    <row r="34" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I34" s="20" t="s">
-        <v>29</v>
-      </c>
       <c r="J34" s="6" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="K34" s="10">
         <v>44906</v>
       </c>
       <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-    </row>
-    <row r="35" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="35" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="I35" s="21"/>
       <c r="J35" s="7" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-    </row>
-    <row r="36" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="36" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I36" s="22"/>
       <c r="J36" s="9" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-    </row>
-    <row r="37" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="37" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="I37" s="20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="K37" s="10">
         <v>44907</v>
       </c>
       <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-    </row>
-    <row r="38" spans="9:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="38" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="I38" s="21"/>
       <c r="J38" s="7" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-    </row>
-    <row r="39" spans="9:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="39" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I39" s="22"/>
       <c r="J39" s="9" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="K39" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L39" s="16"/>
+    </row>
+    <row r="40" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I40" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
+      <c r="K40" s="10">
+        <v>44908</v>
+      </c>
+      <c r="L40" s="10"/>
+    </row>
+    <row r="41" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I41" s="21"/>
+      <c r="J41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L41" s="15"/>
+    </row>
+    <row r="42" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I42" s="22"/>
+      <c r="J42" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K42" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="I40:I42"/>
     <mergeCell ref="I37:I39"/>
     <mergeCell ref="I34:I36"/>
     <mergeCell ref="I6:J6"/>

--- a/Time-Tracker.xlsx
+++ b/Time-Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\Documents\GitHub\Project-Web-Technologies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46562E9-5ACD-4274-8F98-68FCE7531F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B0EC5A-5709-4F08-BBC4-C0C54A8FAF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="40">
   <si>
     <t>Maxim</t>
   </si>
@@ -124,20 +124,35 @@
     <t>11.</t>
   </si>
   <si>
-    <t>Adding Leaflet map component + indicating current location
+    <t>date</t>
+  </si>
+  <si>
+    <t># hours</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Added Leaflet map component + indicating current location
 on the map + indicating nearby companies on the map.</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t># hours</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>Data</t>
+    <t>Added review mechanism for the user to be able to write reviews about companies.</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
+    <t>13.</t>
+  </si>
+  <si>
+    <t>14.</t>
+  </si>
+  <si>
+    <t>Added wishlist for the organizers in order for them to add products from companies  to a wishlist.</t>
   </si>
 </sst>
 </file>
@@ -742,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="I5:L42"/>
+  <dimension ref="I5:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="77" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -758,7 +773,7 @@
     <row r="5" spans="9:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="6" spans="9:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I6" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="4" t="s">
@@ -773,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7" s="10">
         <v>44845</v>
@@ -783,7 +798,7 @@
     <row r="8" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="I8" s="21"/>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>10</v>
@@ -793,7 +808,7 @@
     <row r="9" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I9" s="22"/>
       <c r="J9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>12</v>
@@ -805,7 +820,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10" s="10">
         <v>44854</v>
@@ -815,7 +830,7 @@
     <row r="11" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="I11" s="21"/>
       <c r="J11" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K11" s="14" t="s">
         <v>9</v>
@@ -825,7 +840,7 @@
     <row r="12" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I12" s="22"/>
       <c r="J12" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K12" s="17" t="s">
         <v>13</v>
@@ -837,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K13" s="10">
         <v>44859</v>
@@ -847,7 +862,7 @@
     <row r="14" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="I14" s="21"/>
       <c r="J14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K14" s="14" t="s">
         <v>10</v>
@@ -857,7 +872,7 @@
     <row r="15" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I15" s="22"/>
       <c r="J15" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K15" s="17" t="s">
         <v>14</v>
@@ -869,7 +884,7 @@
         <v>7</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K16" s="10">
         <v>44870</v>
@@ -879,7 +894,7 @@
     <row r="17" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="I17" s="21"/>
       <c r="J17" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K17" s="14" t="s">
         <v>11</v>
@@ -889,7 +904,7 @@
     <row r="18" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I18" s="22"/>
       <c r="J18" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K18" s="18" t="s">
         <v>15</v>
@@ -901,7 +916,7 @@
         <v>8</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K19" s="10">
         <v>44881</v>
@@ -911,7 +926,7 @@
     <row r="20" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="I20" s="21"/>
       <c r="J20" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K20" s="14" t="s">
         <v>9</v>
@@ -921,7 +936,7 @@
     <row r="21" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I21" s="22"/>
       <c r="J21" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K21" s="18" t="s">
         <v>16</v>
@@ -933,7 +948,7 @@
         <v>18</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K22" s="10">
         <v>44885</v>
@@ -943,7 +958,7 @@
     <row r="23" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="I23" s="21"/>
       <c r="J23" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K23" s="14" t="s">
         <v>11</v>
@@ -953,7 +968,7 @@
     <row r="24" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I24" s="22"/>
       <c r="J24" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K24" s="18" t="s">
         <v>17</v>
@@ -965,7 +980,7 @@
         <v>19</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K25" s="10">
         <v>44896</v>
@@ -997,7 +1012,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K28" s="10">
         <v>44900</v>
@@ -1007,7 +1022,7 @@
     <row r="29" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="I29" s="21"/>
       <c r="J29" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K29" s="14" t="s">
         <v>11</v>
@@ -1017,7 +1032,7 @@
     <row r="30" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I30" s="22"/>
       <c r="J30" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K30" s="18" t="s">
         <v>24</v>
@@ -1029,7 +1044,7 @@
         <v>21</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K31" s="10">
         <v>44905</v>
@@ -1039,7 +1054,7 @@
     <row r="32" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="I32" s="21"/>
       <c r="J32" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K32" s="14" t="s">
         <v>11</v>
@@ -1049,7 +1064,7 @@
     <row r="33" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I33" s="22"/>
       <c r="J33" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K33" s="18" t="s">
         <v>23</v>
@@ -1061,7 +1076,7 @@
         <v>26</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K34" s="10">
         <v>44906</v>
@@ -1071,7 +1086,7 @@
     <row r="35" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="I35" s="21"/>
       <c r="J35" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K35" s="14" t="s">
         <v>9</v>
@@ -1081,7 +1096,7 @@
     <row r="36" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I36" s="22"/>
       <c r="J36" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K36" s="18" t="s">
         <v>22</v>
@@ -1093,7 +1108,7 @@
         <v>29</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K37" s="10">
         <v>44907</v>
@@ -1103,7 +1118,7 @@
     <row r="38" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="I38" s="21"/>
       <c r="J38" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K38" s="14" t="s">
         <v>27</v>
@@ -1113,7 +1128,7 @@
     <row r="39" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I39" s="22"/>
       <c r="J39" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K39" s="18" t="s">
         <v>28</v>
@@ -1122,10 +1137,10 @@
     </row>
     <row r="40" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="I40" s="20" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K40" s="10">
         <v>44908</v>
@@ -1135,7 +1150,7 @@
     <row r="41" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="I41" s="21"/>
       <c r="J41" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K41" s="14" t="s">
         <v>9</v>
@@ -1145,15 +1160,81 @@
     <row r="42" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I42" s="22"/>
       <c r="J42" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L42" s="16"/>
     </row>
+    <row r="43" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I43" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K43" s="10">
+        <v>44913</v>
+      </c>
+      <c r="L43" s="10"/>
+    </row>
+    <row r="44" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I44" s="21"/>
+      <c r="J44" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K44" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L44" s="15"/>
+    </row>
+    <row r="45" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I45" s="22"/>
+      <c r="J45" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K45" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L45" s="16"/>
+    </row>
+    <row r="46" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I46" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K46" s="10">
+        <v>44914</v>
+      </c>
+      <c r="L46" s="10"/>
+    </row>
+    <row r="47" spans="9:12" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I47" s="21"/>
+      <c r="J47" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L47" s="15"/>
+    </row>
+    <row r="48" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I48" s="22"/>
+      <c r="J48" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="L48" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="I46:I48"/>
     <mergeCell ref="I40:I42"/>
     <mergeCell ref="I37:I39"/>
     <mergeCell ref="I34:I36"/>

--- a/Time-Tracker.xlsx
+++ b/Time-Tracker.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\verlslag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carl\Documents\GitHub\Project-Web-Technologies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515DDF13-8015-4655-ABCE-268B37484D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="55">
   <si>
     <t>Maxim</t>
   </si>
@@ -155,9 +154,6 @@
     <t>Added wishlist for the organizers in order for them to add products from companies  to a wishlist.</t>
   </si>
   <si>
-    <t>Made a prototype of how the homepage would look like.</t>
-  </si>
-  <si>
     <t>3 hours</t>
   </si>
   <si>
@@ -186,12 +182,28 @@
   </si>
   <si>
     <t>Made the layout of the provider side more appealing</t>
+  </si>
+  <si>
+    <t>Made a prototype of how the homepage 
+would look like.</t>
+  </si>
+  <si>
+    <t>Show added wish list products in profile page right section.</t>
+  </si>
+  <si>
+    <t>15.</t>
+  </si>
+  <si>
+    <t>1,5 hour</t>
+  </si>
+  <si>
+    <t>Fix the displaying of articles, reviews and company details in the ViewCompanyComponent.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,7 +424,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -447,6 +459,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -462,23 +489,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -796,11 +807,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="I5:L49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="I5:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="77" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,10 +823,10 @@
   <sheetData>
     <row r="5" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="9:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="18"/>
+      <c r="J6" s="23"/>
       <c r="K6" s="1" t="s">
         <v>0</v>
       </c>
@@ -824,7 +835,7 @@
       </c>
     </row>
     <row r="7" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="19" t="s">
         <v>2</v>
       </c>
       <c r="J7" s="3" t="s">
@@ -833,36 +844,36 @@
       <c r="K7" s="7">
         <v>44845</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="15">
         <v>44868</v>
       </c>
     </row>
     <row r="8" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I8" s="15"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="4" t="s">
         <v>31</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I9" s="16"/>
+      <c r="I9" s="21"/>
       <c r="J9" s="5" t="s">
         <v>32</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="20" t="s">
-        <v>40</v>
+      <c r="L9" s="24" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="19" t="s">
         <v>5</v>
       </c>
       <c r="J10" s="3" t="s">
@@ -871,36 +882,36 @@
       <c r="K10" s="7">
         <v>44854</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="15">
         <v>44888</v>
       </c>
     </row>
     <row r="11" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I11" s="15"/>
+      <c r="I11" s="20"/>
       <c r="J11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="19" t="s">
-        <v>41</v>
+      <c r="L11" s="14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="16"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="6" t="s">
         <v>32</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="23" t="s">
-        <v>42</v>
+      <c r="L12" s="16" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="19" t="s">
         <v>6</v>
       </c>
       <c r="J13" s="3" t="s">
@@ -909,36 +920,36 @@
       <c r="K13" s="7">
         <v>44859</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="15">
         <v>44897</v>
       </c>
     </row>
     <row r="14" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I14" s="15"/>
+      <c r="I14" s="20"/>
       <c r="J14" s="4" t="s">
         <v>31</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="19" t="s">
-        <v>41</v>
+      <c r="L14" s="14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I15" s="16"/>
+      <c r="I15" s="21"/>
       <c r="J15" s="6" t="s">
         <v>32</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L15" s="23" t="s">
-        <v>43</v>
+      <c r="L15" s="16" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="19" t="s">
         <v>7</v>
       </c>
       <c r="J16" s="3" t="s">
@@ -947,36 +958,36 @@
       <c r="K16" s="7">
         <v>44870</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="17">
         <v>44900</v>
       </c>
     </row>
     <row r="17" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I17" s="15"/>
+      <c r="I17" s="20"/>
       <c r="J17" s="4" t="s">
         <v>31</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="25" t="s">
-        <v>44</v>
+      <c r="L17" s="18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I18" s="16"/>
+      <c r="I18" s="21"/>
       <c r="J18" s="6" t="s">
         <v>32</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="23" t="s">
-        <v>45</v>
+      <c r="L18" s="16" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="19" t="s">
         <v>8</v>
       </c>
       <c r="J19" s="3" t="s">
@@ -985,36 +996,36 @@
       <c r="K19" s="7">
         <v>44881</v>
       </c>
-      <c r="L19" s="24">
+      <c r="L19" s="17">
         <v>44911</v>
       </c>
     </row>
     <row r="20" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I20" s="15"/>
+      <c r="I20" s="20"/>
       <c r="J20" s="4" t="s">
         <v>31</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="25" t="s">
+      <c r="L20" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="16"/>
+      <c r="I21" s="21"/>
       <c r="J21" s="6" t="s">
         <v>32</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="23" t="s">
-        <v>46</v>
+      <c r="L21" s="16" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="19" t="s">
         <v>18</v>
       </c>
       <c r="J22" s="3" t="s">
@@ -1023,36 +1034,36 @@
       <c r="K22" s="7">
         <v>44885</v>
       </c>
-      <c r="L22" s="24">
+      <c r="L22" s="17">
         <v>44912</v>
       </c>
     </row>
     <row r="23" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I23" s="15"/>
+      <c r="I23" s="20"/>
       <c r="J23" s="4" t="s">
         <v>31</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L23" s="25" t="s">
-        <v>41</v>
+      <c r="L23" s="18" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="16"/>
+      <c r="I24" s="21"/>
       <c r="J24" s="6" t="s">
         <v>32</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L24" s="23" t="s">
-        <v>47</v>
+      <c r="L24" s="16" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="19" t="s">
         <v>19</v>
       </c>
       <c r="J25" s="3" t="s">
@@ -1061,36 +1072,36 @@
       <c r="K25" s="7">
         <v>44896</v>
       </c>
-      <c r="L25" s="24">
+      <c r="L25" s="17">
         <v>44914</v>
       </c>
     </row>
     <row r="26" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I26" s="15"/>
+      <c r="I26" s="20"/>
       <c r="J26" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K26" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L26" s="25" t="s">
-        <v>41</v>
+      <c r="L26" s="18" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="16"/>
+      <c r="I27" s="21"/>
       <c r="J27" s="6" t="s">
         <v>4</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="23" t="s">
-        <v>49</v>
+      <c r="L27" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I28" s="14" t="s">
+      <c r="I28" s="19" t="s">
         <v>20</v>
       </c>
       <c r="J28" s="3" t="s">
@@ -1099,36 +1110,36 @@
       <c r="K28" s="7">
         <v>44900</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L28" s="17">
         <v>44915</v>
       </c>
     </row>
     <row r="29" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I29" s="15"/>
+      <c r="I29" s="20"/>
       <c r="J29" s="4" t="s">
         <v>31</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L29" s="25" t="s">
+      <c r="L29" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I30" s="16"/>
+      <c r="I30" s="21"/>
       <c r="J30" s="6" t="s">
         <v>32</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L30" s="23" t="s">
-        <v>48</v>
+      <c r="L30" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I31" s="14" t="s">
+      <c r="I31" s="19" t="s">
         <v>21</v>
       </c>
       <c r="J31" s="3" t="s">
@@ -1137,36 +1148,36 @@
       <c r="K31" s="7">
         <v>44905</v>
       </c>
-      <c r="L31" s="24">
+      <c r="L31" s="17">
         <v>44916</v>
       </c>
     </row>
     <row r="32" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I32" s="15"/>
+      <c r="I32" s="20"/>
       <c r="J32" s="4" t="s">
         <v>31</v>
       </c>
       <c r="K32" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L32" s="25" t="s">
+      <c r="L32" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I33" s="16"/>
+      <c r="I33" s="21"/>
       <c r="J33" s="6" t="s">
         <v>32</v>
       </c>
       <c r="K33" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="L33" s="23" t="s">
-        <v>50</v>
+      <c r="L33" s="16" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I34" s="14" t="s">
+      <c r="I34" s="19" t="s">
         <v>26</v>
       </c>
       <c r="J34" s="3" t="s">
@@ -1175,30 +1186,30 @@
       <c r="K34" s="7">
         <v>44906</v>
       </c>
-      <c r="L34" s="24"/>
+      <c r="L34" s="17"/>
     </row>
     <row r="35" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I35" s="15"/>
+      <c r="I35" s="20"/>
       <c r="J35" s="4" t="s">
         <v>31</v>
       </c>
       <c r="K35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L35" s="25"/>
+      <c r="L35" s="18"/>
     </row>
     <row r="36" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I36" s="16"/>
+      <c r="I36" s="21"/>
       <c r="J36" s="6" t="s">
         <v>32</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L36" s="23"/>
+      <c r="L36" s="16"/>
     </row>
     <row r="37" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I37" s="14" t="s">
+      <c r="I37" s="19" t="s">
         <v>29</v>
       </c>
       <c r="J37" s="3" t="s">
@@ -1207,30 +1218,30 @@
       <c r="K37" s="7">
         <v>44907</v>
       </c>
-      <c r="L37" s="24"/>
+      <c r="L37" s="17"/>
     </row>
     <row r="38" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I38" s="15"/>
+      <c r="I38" s="20"/>
       <c r="J38" s="4" t="s">
         <v>31</v>
       </c>
       <c r="K38" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L38" s="25"/>
+      <c r="L38" s="18"/>
     </row>
     <row r="39" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I39" s="16"/>
+      <c r="I39" s="21"/>
       <c r="J39" s="6" t="s">
         <v>32</v>
       </c>
       <c r="K39" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L39" s="23"/>
+      <c r="L39" s="16"/>
     </row>
     <row r="40" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I40" s="14" t="s">
+      <c r="I40" s="19" t="s">
         <v>36</v>
       </c>
       <c r="J40" s="3" t="s">
@@ -1239,30 +1250,30 @@
       <c r="K40" s="7">
         <v>44908</v>
       </c>
-      <c r="L40" s="24"/>
+      <c r="L40" s="17"/>
     </row>
     <row r="41" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I41" s="15"/>
+      <c r="I41" s="20"/>
       <c r="J41" s="4" t="s">
         <v>31</v>
       </c>
       <c r="K41" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L41" s="25"/>
+      <c r="L41" s="18"/>
     </row>
     <row r="42" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I42" s="16"/>
+      <c r="I42" s="21"/>
       <c r="J42" s="6" t="s">
         <v>32</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="L42" s="23"/>
+      <c r="L42" s="16"/>
     </row>
     <row r="43" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I43" s="14" t="s">
+      <c r="I43" s="19" t="s">
         <v>37</v>
       </c>
       <c r="J43" s="3" t="s">
@@ -1271,30 +1282,30 @@
       <c r="K43" s="7">
         <v>44913</v>
       </c>
-      <c r="L43" s="24"/>
+      <c r="L43" s="17"/>
     </row>
     <row r="44" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I44" s="15"/>
+      <c r="I44" s="20"/>
       <c r="J44" s="4" t="s">
         <v>31</v>
       </c>
       <c r="K44" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L44" s="25"/>
+      <c r="L44" s="18"/>
     </row>
     <row r="45" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I45" s="16"/>
+      <c r="I45" s="21"/>
       <c r="J45" s="6" t="s">
         <v>32</v>
       </c>
       <c r="K45" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L45" s="23"/>
+      <c r="L45" s="16"/>
     </row>
     <row r="46" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I46" s="14" t="s">
+      <c r="I46" s="19" t="s">
         <v>38</v>
       </c>
       <c r="J46" s="3" t="s">
@@ -1303,33 +1314,96 @@
       <c r="K46" s="7">
         <v>44914</v>
       </c>
-      <c r="L46" s="24"/>
+      <c r="L46" s="17"/>
     </row>
     <row r="47" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I47" s="15"/>
+      <c r="I47" s="20"/>
       <c r="J47" s="4" t="s">
         <v>31</v>
       </c>
       <c r="K47" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L47" s="25"/>
+      <c r="L47" s="18"/>
     </row>
     <row r="48" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I48" s="16"/>
+      <c r="I48" s="21"/>
       <c r="J48" s="6" t="s">
         <v>32</v>
       </c>
       <c r="K48" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L48" s="23"/>
-    </row>
-    <row r="49" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L49" s="22"/>
+      <c r="L48" s="16"/>
+    </row>
+    <row r="49" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I49" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K49" s="7">
+        <v>44915</v>
+      </c>
+      <c r="L49" s="17"/>
+    </row>
+    <row r="50" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I50" s="20"/>
+      <c r="J50" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L50" s="18"/>
+    </row>
+    <row r="51" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I51" s="21"/>
+      <c r="J51" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L51" s="16"/>
+    </row>
+    <row r="52" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I52" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K52" s="7">
+        <v>44917</v>
+      </c>
+      <c r="L52" s="17"/>
+    </row>
+    <row r="53" spans="9:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I53" s="20"/>
+      <c r="J53" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L53" s="18"/>
+    </row>
+    <row r="54" spans="9:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I54" s="21"/>
+      <c r="J54" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L54" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="I52:I54"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="I25:I27"/>
